--- a/assets/examples/xlsx/RS0001/Chiller-Unsupported.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/Chiller-Unsupported.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -369,22 +371,27 @@
     </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A36" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -489,32 +496,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -545,6 +537,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -840,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,34 +1555,36 @@
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>31400</v>
+        <v>0.25</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n"/>
       <c r="E34" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1530,13 +1594,13 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D35" s="4" t="n"/>
@@ -1549,13 +1613,13 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B36" s="4" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D36" s="4" t="n"/>
@@ -1565,32 +1629,53 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C19" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C29" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C29" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C32" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1"/>
     <hyperlink ref="C28" r:id="rId2"/>
-    <hyperlink ref="C35" r:id="rId3"/>
-    <hyperlink ref="C36" r:id="rId4"/>
+    <hyperlink ref="C34" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
+    <hyperlink ref="C36" r:id="rId5"/>
+    <hyperlink ref="C37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1751,7 +1836,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1914,7 +1999,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2069,9 +2154,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2116,32 +2198,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2188,32 +2255,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2243,22 +2295,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>295.1798873124882</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2287,22 +2332,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>296.2097746249765</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2331,22 +2369,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>297.2396619374647</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2375,22 +2406,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>298.2695492499529</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2419,22 +2443,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>299.2994365624412</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2463,22 +2480,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>298.1798873124882</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2507,22 +2517,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>299.2097746249765</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2551,22 +2554,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.2396619374647</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2595,22 +2591,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>301.2695492499529</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2639,22 +2628,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>302.2994365624412</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2683,22 +2665,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>301.1798873124882</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2727,22 +2702,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>302.2097746249765</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2771,22 +2739,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>303.2396619374647</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2815,22 +2776,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>304.2695492499529</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2859,22 +2813,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>305.2994365624412</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2903,22 +2850,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>303.6198873124882</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2947,22 +2887,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>304.6497746249765</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2991,22 +2924,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>305.6796619374647</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3035,22 +2961,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>306.7095492499529</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3079,22 +2998,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>307.7394365624412</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3123,22 +3035,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>295.1798873124882</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3167,22 +3072,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>296.2097746249765</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3211,22 +3109,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>297.2396619374647</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3255,22 +3146,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>298.2695492499529</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3299,22 +3183,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>299.2994365624412</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3343,22 +3220,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>298.1798873124882</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3387,22 +3257,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>299.2097746249765</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3431,22 +3294,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>300.2396619374647</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3475,22 +3331,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>301.2695492499529</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3519,22 +3368,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>302.2994365624412</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3563,22 +3405,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>301.1798873124882</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3607,22 +3442,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>302.2097746249765</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3651,22 +3479,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>303.2396619374647</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3695,22 +3516,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>304.2695492499529</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3739,22 +3553,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>305.2994365624412</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3783,22 +3590,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>303.6198873124882</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3827,22 +3627,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>304.6497746249765</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3871,22 +3664,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>305.6796619374647</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3915,22 +3701,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>306.7095492499529</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3959,22 +3738,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>307.7394365624412</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4165,4 +3937,406 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>279.82</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>281.82</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>74400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>294.15</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>302.59</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>